--- a/data/water_supply_facility/data.xlsx
+++ b/data/water_supply_facility/data.xlsx
@@ -441,13 +441,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2">
         <v>34.33416056</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
         <v>134.01512139</v>
       </c>
       <c r="D2" t="str">
@@ -479,13 +479,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3">
         <v>34.33337361</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3">
         <v>134.01533389</v>
       </c>
       <c r="D3" t="str">
@@ -500,9 +500,6 @@
       <c r="G3" t="str">
         <v>http://union.suido-kagawa.lg.jp/soshiki/29/1413.html</v>
       </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
       <c r="I3" t="str">
         <v>月火水木金</v>
       </c>
@@ -517,13 +514,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4">
         <v>34.25399139</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
         <v>134.029675</v>
       </c>
       <c r="D4" t="str">
@@ -538,9 +535,6 @@
       <c r="G4" t="str">
         <v>http://union.suido-kagawa.lg.jp/soshiki/29/1411.html</v>
       </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
       <c r="I4" t="str">
         <v>月火水木金</v>
       </c>
@@ -555,13 +549,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5">
         <v>34.30793111</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <v>134.10039139</v>
       </c>
       <c r="D5" t="str">
@@ -576,9 +570,6 @@
       <c r="G5" t="str">
         <v>http://union.suido-kagawa.lg.jp/soshiki/29/1412.html</v>
       </c>
-      <c r="H5" t="str">
-        <v/>
-      </c>
       <c r="I5" t="str">
         <v>月火水木金</v>
       </c>
@@ -593,13 +584,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6">
         <v>34.17610333</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
         <v>134.07563889</v>
       </c>
       <c r="D6" t="str">
@@ -608,36 +599,18 @@
       <c r="E6" t="str">
         <v>高松市塩江町安原上565-1</v>
       </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <v/>
-      </c>
-      <c r="K6" t="str">
-        <v/>
-      </c>
       <c r="L6" t="str">
         <v>利用不可</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7">
         <v>34.1375775</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7">
         <v>134.07610361</v>
       </c>
       <c r="D7" t="str">
@@ -646,36 +619,18 @@
       <c r="E7" t="str">
         <v>高松市塩江町上西甲672-1</v>
       </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <v/>
-      </c>
-      <c r="J7" t="str">
-        <v/>
-      </c>
-      <c r="K7" t="str">
-        <v/>
-      </c>
       <c r="L7" t="str">
         <v>利用不可</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8">
         <v>34.30207</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8">
         <v>133.96305</v>
       </c>
       <c r="D8" t="str">
@@ -684,74 +639,44 @@
       <c r="E8" t="str">
         <v>高松市国分寺町新居1710-1</v>
       </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
       <c r="H8" t="str">
         <v>休止中</v>
       </c>
-      <c r="I8" t="str">
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <v/>
-      </c>
-      <c r="K8" t="str">
-        <v/>
-      </c>
       <c r="L8" t="str">
         <v>利用不可</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9">
         <v>34.283235</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9">
         <v>133.960837</v>
       </c>
       <c r="D9" t="str">
         <v>国分寺第２浄水場</v>
       </c>
       <c r="E9" t="str">
-        <v>高松市国分寺町新名1432</v>
-      </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <v/>
+        <v>高松市国分寺町新名1432-2</v>
       </c>
       <c r="H9" t="str">
         <v>休止中</v>
       </c>
-      <c r="I9" t="str">
-        <v/>
-      </c>
-      <c r="J9" t="str">
-        <v/>
-      </c>
-      <c r="K9" t="str">
-        <v/>
-      </c>
       <c r="L9" t="str">
         <v>利用不可</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10">
         <v>34.30739917</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10">
         <v>134.10019111</v>
       </c>
       <c r="D10" t="str">
@@ -765,9 +690,6 @@
       </c>
       <c r="G10" t="str">
         <v>http://union.suido-kagawa.lg.jp/soshiki/53/</v>
-      </c>
-      <c r="H10" t="str">
-        <v/>
       </c>
       <c r="I10" t="str">
         <v>月火水木金</v>

--- a/data/water_supply_facility/data.xlsx
+++ b/data/water_supply_facility/data.xlsx
@@ -441,13 +441,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2">
         <v>34.33416056</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
         <v>134.01512139</v>
       </c>
       <c r="D2" t="str">
@@ -468,24 +468,24 @@
       <c r="I2" t="str">
         <v>日月火水木金土</v>
       </c>
-      <c r="J2" t="str">
-        <v>10:00</v>
-      </c>
-      <c r="K2" t="str">
-        <v>17:00</v>
+      <c r="J2">
+        <v>0.41666666666666674</v>
+      </c>
+      <c r="K2">
+        <v>0.7083333333333333</v>
       </c>
       <c r="L2" t="str">
         <v>団体での見学、及び見学以外の利用の場合は事前申込必要。年末年始（12/29～1/3）は終日利用不可</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3">
         <v>34.33337361</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3">
         <v>134.01533389</v>
       </c>
       <c r="D3" t="str">
@@ -500,30 +500,27 @@
       <c r="G3" t="str">
         <v>http://union.suido-kagawa.lg.jp/soshiki/29/1413.html</v>
       </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
       <c r="I3" t="str">
         <v>月火水木金</v>
       </c>
-      <c r="J3" t="str">
-        <v>09:00</v>
-      </c>
-      <c r="K3" t="str">
-        <v>17:00</v>
+      <c r="J3">
+        <v>0.375</v>
+      </c>
+      <c r="K3">
+        <v>0.7083333333333333</v>
       </c>
       <c r="L3" t="str">
         <v>事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4">
         <v>34.25399139</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
         <v>134.029675</v>
       </c>
       <c r="D4" t="str">
@@ -538,30 +535,27 @@
       <c r="G4" t="str">
         <v>http://union.suido-kagawa.lg.jp/soshiki/29/1411.html</v>
       </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
       <c r="I4" t="str">
         <v>月火水木金</v>
       </c>
-      <c r="J4" t="str">
-        <v>09:00</v>
-      </c>
-      <c r="K4" t="str">
-        <v>17:00</v>
+      <c r="J4">
+        <v>0.375</v>
+      </c>
+      <c r="K4">
+        <v>0.7083333333333333</v>
       </c>
       <c r="L4" t="str">
         <v>事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5">
         <v>34.30793111</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <v>134.10039139</v>
       </c>
       <c r="D5" t="str">
@@ -576,30 +570,27 @@
       <c r="G5" t="str">
         <v>http://union.suido-kagawa.lg.jp/soshiki/29/1412.html</v>
       </c>
-      <c r="H5" t="str">
-        <v/>
-      </c>
       <c r="I5" t="str">
         <v>月火水木金</v>
       </c>
-      <c r="J5" t="str">
-        <v>09:00</v>
-      </c>
-      <c r="K5" t="str">
-        <v>17:00</v>
+      <c r="J5">
+        <v>0.375</v>
+      </c>
+      <c r="K5">
+        <v>0.7083333333333333</v>
       </c>
       <c r="L5" t="str">
         <v>事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6">
         <v>34.17610333</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
         <v>134.07563889</v>
       </c>
       <c r="D6" t="str">
@@ -608,36 +599,18 @@
       <c r="E6" t="str">
         <v>高松市塩江町安原上565-1</v>
       </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <v/>
-      </c>
-      <c r="K6" t="str">
-        <v/>
-      </c>
       <c r="L6" t="str">
         <v>利用不可</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7">
         <v>34.1375775</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7">
         <v>134.07610361</v>
       </c>
       <c r="D7" t="str">
@@ -646,36 +619,18 @@
       <c r="E7" t="str">
         <v>高松市塩江町上西甲672-1</v>
       </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <v/>
-      </c>
-      <c r="J7" t="str">
-        <v/>
-      </c>
-      <c r="K7" t="str">
-        <v/>
-      </c>
       <c r="L7" t="str">
         <v>利用不可</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8">
         <v>34.30207</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8">
         <v>133.96305</v>
       </c>
       <c r="D8" t="str">
@@ -684,74 +639,44 @@
       <c r="E8" t="str">
         <v>高松市国分寺町新居1710-1</v>
       </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
       <c r="H8" t="str">
         <v>休止中</v>
       </c>
-      <c r="I8" t="str">
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <v/>
-      </c>
-      <c r="K8" t="str">
-        <v/>
-      </c>
       <c r="L8" t="str">
         <v>利用不可</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9">
         <v>34.283235</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9">
         <v>133.960837</v>
       </c>
       <c r="D9" t="str">
         <v>国分寺第２浄水場</v>
       </c>
       <c r="E9" t="str">
-        <v>高松市国分寺町新名1432</v>
-      </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <v/>
+        <v>高松市国分寺町新名1432-2</v>
       </c>
       <c r="H9" t="str">
         <v>休止中</v>
       </c>
-      <c r="I9" t="str">
-        <v/>
-      </c>
-      <c r="J9" t="str">
-        <v/>
-      </c>
-      <c r="K9" t="str">
-        <v/>
-      </c>
       <c r="L9" t="str">
         <v>利用不可</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10">
         <v>34.30739917</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10">
         <v>134.10019111</v>
       </c>
       <c r="D10" t="str">
@@ -766,17 +691,14 @@
       <c r="G10" t="str">
         <v>http://union.suido-kagawa.lg.jp/soshiki/53/</v>
       </c>
-      <c r="H10" t="str">
-        <v/>
-      </c>
       <c r="I10" t="str">
         <v>月火水木金</v>
       </c>
-      <c r="J10" t="str">
-        <v>09:00</v>
-      </c>
-      <c r="K10" t="str">
-        <v>17:00</v>
+      <c r="J10">
+        <v>0.375</v>
+      </c>
+      <c r="K10">
+        <v>0.7083333333333333</v>
       </c>
       <c r="L10" t="str">
         <v>団体での利用不可。事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>

--- a/data/water_supply_facility/data.xlsx
+++ b/data/water_supply_facility/data.xlsx
@@ -1,181 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\s11606\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
-  <si>
-    <t>#property</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>telephoneNumber</t>
-  </si>
-  <si>
-    <t>referenceObject</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>availableDate</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>availableDateNote</t>
-  </si>
-  <si>
-    <t>旧御殿水源地（高松市水道資料館）</t>
-  </si>
-  <si>
-    <t>高松市鶴市町1360</t>
-  </si>
-  <si>
-    <t>087-839-2711</t>
-  </si>
-  <si>
-    <t>http://union.suido-kagawa.lg.jp/soshiki/25/1283.html</t>
-  </si>
-  <si>
-    <t>国登録有形文化財</t>
-  </si>
-  <si>
-    <t>日月火水木金土</t>
-  </si>
-  <si>
-    <t>団体での見学、及び見学以外の利用の場合は事前申込必要。年末年始（12/29～1/3）は終日利用不可</t>
-  </si>
-  <si>
-    <t>御殿浄水場</t>
-  </si>
-  <si>
-    <t>087-861-2920</t>
-  </si>
-  <si>
-    <t>http://union.suido-kagawa.lg.jp/soshiki/29/1413.html</t>
-  </si>
-  <si>
-    <t>月火水木金</t>
-  </si>
-  <si>
-    <t>事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</t>
-  </si>
-  <si>
-    <t>浅野浄水場</t>
-  </si>
-  <si>
-    <t>高松市香川町浅野1161</t>
-  </si>
-  <si>
-    <t>087-879-4330</t>
-  </si>
-  <si>
-    <t>http://union.suido-kagawa.lg.jp/soshiki/29/1411.html</t>
-  </si>
-  <si>
-    <t>川添浄水場</t>
-  </si>
-  <si>
-    <t>高松市東山崎町1331</t>
-  </si>
-  <si>
-    <t>087-847-6141</t>
-  </si>
-  <si>
-    <t>http://union.suido-kagawa.lg.jp/soshiki/29/1412.html</t>
-  </si>
-  <si>
-    <t>後川浄水場</t>
-  </si>
-  <si>
-    <t>高松市塩江町安原上565-1</t>
-  </si>
-  <si>
-    <t>利用不可</t>
-  </si>
-  <si>
-    <t>一ツ内浄水場</t>
-  </si>
-  <si>
-    <t>高松市塩江町上西甲672-1</t>
-  </si>
-  <si>
-    <t>国分寺第１浄水場</t>
-  </si>
-  <si>
-    <t>高松市国分寺町新居1710-1</t>
-  </si>
-  <si>
-    <t>休止中</t>
-  </si>
-  <si>
-    <t>国分寺第２浄水場</t>
-  </si>
-  <si>
-    <t>高松市国分寺町新名1432-2</t>
-  </si>
-  <si>
-    <t>水質管理課</t>
-  </si>
-  <si>
-    <t>087-847-4869</t>
-  </si>
-  <si>
-    <t>http://union.suido-kagawa.lg.jp/soshiki/53/</t>
-  </si>
-  <si>
-    <t>団体での利用不可。事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -203,18 +68,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -539,322 +396,317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>#property</v>
+      </c>
+      <c r="B1" t="str">
+        <v>latitude</v>
+      </c>
+      <c r="C1" t="str">
+        <v>longitude</v>
+      </c>
+      <c r="D1" t="str">
+        <v>name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>address</v>
+      </c>
+      <c r="F1" t="str">
+        <v>telephoneNumber</v>
+      </c>
+      <c r="G1" t="str">
+        <v>referenceObject</v>
+      </c>
+      <c r="H1" t="str">
+        <v>note</v>
+      </c>
+      <c r="I1" t="str">
+        <v>availableDate</v>
+      </c>
+      <c r="J1" t="str">
+        <v>startTime</v>
+      </c>
+      <c r="K1" t="str">
+        <v>endTime</v>
+      </c>
+      <c r="L1" t="str">
+        <v>availableDateNote</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>34.334160560000001</v>
+        <v>34.33416056</v>
       </c>
       <c r="C2">
-        <v>134.01512138999999</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
+        <v>134.01512139</v>
+      </c>
+      <c r="D2" t="str">
+        <v>旧御殿水源地（高松市水道資料館）</v>
+      </c>
+      <c r="E2" t="str">
+        <v>高松市鶴市町1360</v>
+      </c>
+      <c r="F2" t="str">
+        <v>087-839-2711</v>
+      </c>
+      <c r="G2" t="str">
+        <v>http://union.suido-kagawa.lg.jp/soshiki/25/1283.html</v>
+      </c>
+      <c r="H2" t="str">
+        <v>国登録有形文化財</v>
+      </c>
+      <c r="I2" t="str">
+        <v>日月火水木金土</v>
       </c>
       <c r="J2">
         <v>0.41666666666666674</v>
       </c>
       <c r="K2">
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="L2" t="str">
+        <v>団体での見学、及び見学以外の利用の場合は事前申込必要。年末年始（12/29～1/3）は終日利用不可</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>34.333373610000002</v>
+        <v>34.33337361</v>
       </c>
       <c r="C3">
-        <v>134.01533388999999</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
+        <v>134.01533389</v>
+      </c>
+      <c r="D3" t="str">
+        <v>御殿浄水場</v>
+      </c>
+      <c r="E3" t="str">
+        <v>高松市鶴市町1360</v>
+      </c>
+      <c r="F3" t="str">
+        <v>087-861-2920</v>
+      </c>
+      <c r="G3" t="str">
+        <v>http://union.suido-kagawa.lg.jp/soshiki/29/1413.html</v>
+      </c>
+      <c r="I3" t="str">
+        <v>月火水木金</v>
       </c>
       <c r="J3">
         <v>0.375</v>
       </c>
       <c r="K3">
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="L3" t="str">
+        <v>事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>34.253991390000003</v>
+        <v>34.25399139</v>
       </c>
       <c r="C4">
         <v>134.029675</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
+      <c r="D4" t="str">
+        <v>浅野浄水場</v>
+      </c>
+      <c r="E4" t="str">
+        <v>高松市香川町浅野1161</v>
+      </c>
+      <c r="F4" t="str">
+        <v>087-879-4330</v>
+      </c>
+      <c r="G4" t="str">
+        <v>http://union.suido-kagawa.lg.jp/soshiki/29/1411.html</v>
+      </c>
+      <c r="I4" t="str">
+        <v>月火水木金</v>
       </c>
       <c r="J4">
         <v>0.375</v>
       </c>
       <c r="K4">
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="L4" t="str">
+        <v>事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>34.307931109999998</v>
+        <v>34.30793111</v>
       </c>
       <c r="C5">
         <v>134.10039139</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
+      <c r="D5" t="str">
+        <v>川添浄水場</v>
+      </c>
+      <c r="E5" t="str">
+        <v>高松市東山崎町1331</v>
+      </c>
+      <c r="F5" t="str">
+        <v>087-847-6141</v>
+      </c>
+      <c r="G5" t="str">
+        <v>http://union.suido-kagawa.lg.jp/soshiki/29/1412.html</v>
+      </c>
+      <c r="I5" t="str">
+        <v>月火水木金</v>
       </c>
       <c r="J5">
         <v>0.375</v>
       </c>
       <c r="K5">
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="L5" t="str">
+        <v>事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>34.176103329999997</v>
+        <v>34.17610333</v>
       </c>
       <c r="C6">
-        <v>134.07563888999999</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>134.07563889</v>
+      </c>
+      <c r="D6" t="str">
+        <v>後川浄水場</v>
+      </c>
+      <c r="E6" t="str">
+        <v>高松市塩江町安原上565-1</v>
+      </c>
+      <c r="L6" t="str">
+        <v>利用不可</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>34.137577499999999</v>
+        <v>34.1375775</v>
       </c>
       <c r="C7">
-        <v>134.07610360999999</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>134.07610361</v>
+      </c>
+      <c r="D7" t="str">
+        <v>一ツ内浄水場</v>
+      </c>
+      <c r="E7" t="str">
+        <v>高松市塩江町上西甲672-1</v>
+      </c>
+      <c r="L7" t="str">
+        <v>利用不可</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>34.302070000000001</v>
+        <v>34.30207</v>
       </c>
       <c r="C8">
-        <v>133.96305000000001</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>133.96305</v>
+      </c>
+      <c r="D8" t="str">
+        <v>国分寺第１浄水場</v>
+      </c>
+      <c r="E8" t="str">
+        <v>高松市国分寺町新居1710-1</v>
+      </c>
+      <c r="H8" t="str">
+        <v>休止中</v>
+      </c>
+      <c r="L8" t="str">
+        <v>利用不可</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>34.283234999999998</v>
+        <v>34.283235</v>
       </c>
       <c r="C9">
         <v>133.960837</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D9" t="str">
+        <v>国分寺第２浄水場</v>
+      </c>
+      <c r="E9" t="str">
+        <v>高松市国分寺町新名1432-2</v>
+      </c>
+      <c r="H9" t="str">
+        <v>休止中</v>
+      </c>
+      <c r="L9" t="str">
+        <v>利用不可</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>34.307399169999997</v>
+        <v>34.30739917</v>
       </c>
       <c r="C10">
         <v>134.10019111</v>
       </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
+      <c r="D10" t="str">
+        <v>水質管理課</v>
+      </c>
+      <c r="E10" t="str">
+        <v>高松市東山崎町1331</v>
+      </c>
+      <c r="F10" t="str">
+        <v>087-847-4869</v>
+      </c>
+      <c r="G10" t="str">
+        <v>http://union.suido-kagawa.lg.jp/soshiki/53/</v>
+      </c>
+      <c r="I10" t="str">
+        <v>月火水木金</v>
       </c>
       <c r="J10">
         <v>0.375</v>
       </c>
       <c r="K10">
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="L10" t="s">
-        <v>45</v>
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="L10" t="str">
+        <v>団体での利用不可。事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L10" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/water_supply_facility/data.xlsx
+++ b/data/water_supply_facility/data.xlsx
@@ -1,46 +1,303 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoppy/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A283F8D-567E-EB40-9030-E2997DCB4B7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33840" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+  <si>
+    <t>#property</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>telephoneNumber</t>
+  </si>
+  <si>
+    <t>referenceObject</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>availableDate</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>availableDateNote</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34.33416056</t>
+  </si>
+  <si>
+    <t>134.01512139</t>
+  </si>
+  <si>
+    <t>旧御殿水源地（高松市水道資料館）</t>
+  </si>
+  <si>
+    <t>高松市鶴市町1360</t>
+  </si>
+  <si>
+    <t>087-839-2711</t>
+  </si>
+  <si>
+    <t>http://union.suido-kagawa.lg.jp/soshiki/25/1283.html</t>
+  </si>
+  <si>
+    <t>国登録有形文化財</t>
+  </si>
+  <si>
+    <t>日月火水木金土</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>団体での見学、及び見学以外の利用の場合は事前申込必要。年末年始（12/29～1/3）は終日利用不可</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>34.33337361</t>
+  </si>
+  <si>
+    <t>134.01533389</t>
+  </si>
+  <si>
+    <t>御殿浄水場</t>
+  </si>
+  <si>
+    <t>087-861-2920</t>
+  </si>
+  <si>
+    <t>http://union.suido-kagawa.lg.jp/soshiki/29/1413.html</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>月火水木金</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>34.25399139</t>
+  </si>
+  <si>
+    <t>134.029675</t>
+  </si>
+  <si>
+    <t>浅野浄水場</t>
+  </si>
+  <si>
+    <t>高松市香川町浅野1161</t>
+  </si>
+  <si>
+    <t>087-879-4330</t>
+  </si>
+  <si>
+    <t>http://union.suido-kagawa.lg.jp/soshiki/29/1411.html</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>34.30793111</t>
+  </si>
+  <si>
+    <t>134.10039139</t>
+  </si>
+  <si>
+    <t>川添浄水場</t>
+  </si>
+  <si>
+    <t>高松市東山崎町1331</t>
+  </si>
+  <si>
+    <t>087-847-6141</t>
+  </si>
+  <si>
+    <t>http://union.suido-kagawa.lg.jp/soshiki/29/1412.html</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>34.17610333</t>
+  </si>
+  <si>
+    <t>134.07563889</t>
+  </si>
+  <si>
+    <t>後川浄水場</t>
+  </si>
+  <si>
+    <t>高松市塩江町安原上565-1</t>
+  </si>
+  <si>
+    <t>利用不可</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>34.1375775</t>
+  </si>
+  <si>
+    <t>134.07610361</t>
+  </si>
+  <si>
+    <t>一ツ内浄水場</t>
+  </si>
+  <si>
+    <t>高松市塩江町上西甲672-1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>34.30207</t>
+  </si>
+  <si>
+    <t>133.96305</t>
+  </si>
+  <si>
+    <t>国分寺第１浄水場</t>
+  </si>
+  <si>
+    <t>高松市国分寺町新居1710-1</t>
+  </si>
+  <si>
+    <t>休止中</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>34.283235</t>
+  </si>
+  <si>
+    <t>133.960837</t>
+  </si>
+  <si>
+    <t>国分寺第２浄水場</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>34.30739917</t>
+  </si>
+  <si>
+    <t>134.10019111</t>
+  </si>
+  <si>
+    <t>水質管理課</t>
+  </si>
+  <si>
+    <t>087-847-4869</t>
+  </si>
+  <si>
+    <t>http://union.suido-kagawa.lg.jp/soshiki/53/</t>
+  </si>
+  <si>
+    <t>団体での利用不可。事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</t>
+  </si>
+  <si>
+    <r>
+      <t>高松市国分寺町新名1432</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -64,14 +321,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,317 +662,415 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="94.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>#property</v>
-      </c>
-      <c r="B1" t="str">
-        <v>latitude</v>
-      </c>
-      <c r="C1" t="str">
-        <v>longitude</v>
-      </c>
-      <c r="D1" t="str">
-        <v>name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>address</v>
-      </c>
-      <c r="F1" t="str">
-        <v>telephoneNumber</v>
-      </c>
-      <c r="G1" t="str">
-        <v>referenceObject</v>
-      </c>
-      <c r="H1" t="str">
-        <v>note</v>
-      </c>
-      <c r="I1" t="str">
-        <v>availableDate</v>
-      </c>
-      <c r="J1" t="str">
-        <v>startTime</v>
-      </c>
-      <c r="K1" t="str">
-        <v>endTime</v>
-      </c>
-      <c r="L1" t="str">
-        <v>availableDateNote</v>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>34.33416056</v>
-      </c>
-      <c r="C2">
-        <v>134.01512139</v>
-      </c>
-      <c r="D2" t="str">
-        <v>旧御殿水源地（高松市水道資料館）</v>
-      </c>
-      <c r="E2" t="str">
-        <v>高松市鶴市町1360</v>
-      </c>
-      <c r="F2" t="str">
-        <v>087-839-2711</v>
-      </c>
-      <c r="G2" t="str">
-        <v>http://union.suido-kagawa.lg.jp/soshiki/25/1283.html</v>
-      </c>
-      <c r="H2" t="str">
-        <v>国登録有形文化財</v>
-      </c>
-      <c r="I2" t="str">
-        <v>日月火水木金土</v>
-      </c>
-      <c r="J2">
-        <v>0.41666666666666674</v>
-      </c>
-      <c r="K2">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="L2" t="str">
-        <v>団体での見学、及び見学以外の利用の場合は事前申込必要。年末年始（12/29～1/3）は終日利用不可</v>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>34.33337361</v>
-      </c>
-      <c r="C3">
-        <v>134.01533389</v>
-      </c>
-      <c r="D3" t="str">
-        <v>御殿浄水場</v>
-      </c>
-      <c r="E3" t="str">
-        <v>高松市鶴市町1360</v>
-      </c>
-      <c r="F3" t="str">
-        <v>087-861-2920</v>
-      </c>
-      <c r="G3" t="str">
-        <v>http://union.suido-kagawa.lg.jp/soshiki/29/1413.html</v>
-      </c>
-      <c r="I3" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="J3">
-        <v>0.375</v>
-      </c>
-      <c r="K3">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="L3" t="str">
-        <v>事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>34.25399139</v>
-      </c>
-      <c r="C4">
-        <v>134.029675</v>
-      </c>
-      <c r="D4" t="str">
-        <v>浅野浄水場</v>
-      </c>
-      <c r="E4" t="str">
-        <v>高松市香川町浅野1161</v>
-      </c>
-      <c r="F4" t="str">
-        <v>087-879-4330</v>
-      </c>
-      <c r="G4" t="str">
-        <v>http://union.suido-kagawa.lg.jp/soshiki/29/1411.html</v>
-      </c>
-      <c r="I4" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="J4">
-        <v>0.375</v>
-      </c>
-      <c r="K4">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="L4" t="str">
-        <v>事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>34.30793111</v>
-      </c>
-      <c r="C5">
-        <v>134.10039139</v>
-      </c>
-      <c r="D5" t="str">
-        <v>川添浄水場</v>
-      </c>
-      <c r="E5" t="str">
-        <v>高松市東山崎町1331</v>
-      </c>
-      <c r="F5" t="str">
-        <v>087-847-6141</v>
-      </c>
-      <c r="G5" t="str">
-        <v>http://union.suido-kagawa.lg.jp/soshiki/29/1412.html</v>
-      </c>
-      <c r="I5" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="J5">
-        <v>0.375</v>
-      </c>
-      <c r="K5">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="L5" t="str">
-        <v>事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>34.17610333</v>
-      </c>
-      <c r="C6">
-        <v>134.07563889</v>
-      </c>
-      <c r="D6" t="str">
-        <v>後川浄水場</v>
-      </c>
-      <c r="E6" t="str">
-        <v>高松市塩江町安原上565-1</v>
-      </c>
-      <c r="L6" t="str">
-        <v>利用不可</v>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>34.1375775</v>
-      </c>
-      <c r="C7">
-        <v>134.07610361</v>
-      </c>
-      <c r="D7" t="str">
-        <v>一ツ内浄水場</v>
-      </c>
-      <c r="E7" t="str">
-        <v>高松市塩江町上西甲672-1</v>
-      </c>
-      <c r="L7" t="str">
-        <v>利用不可</v>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>34.30207</v>
-      </c>
-      <c r="C8">
-        <v>133.96305</v>
-      </c>
-      <c r="D8" t="str">
-        <v>国分寺第１浄水場</v>
-      </c>
-      <c r="E8" t="str">
-        <v>高松市国分寺町新居1710-1</v>
-      </c>
-      <c r="H8" t="str">
-        <v>休止中</v>
-      </c>
-      <c r="L8" t="str">
-        <v>利用不可</v>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>34.283235</v>
-      </c>
-      <c r="C9">
-        <v>133.960837</v>
-      </c>
-      <c r="D9" t="str">
-        <v>国分寺第２浄水場</v>
-      </c>
-      <c r="E9" t="str">
-        <v>高松市国分寺町新名1432-2</v>
-      </c>
-      <c r="H9" t="str">
-        <v>休止中</v>
-      </c>
-      <c r="L9" t="str">
-        <v>利用不可</v>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>34.30739917</v>
-      </c>
-      <c r="C10">
-        <v>134.10019111</v>
-      </c>
-      <c r="D10" t="str">
-        <v>水質管理課</v>
-      </c>
-      <c r="E10" t="str">
-        <v>高松市東山崎町1331</v>
-      </c>
-      <c r="F10" t="str">
-        <v>087-847-4869</v>
-      </c>
-      <c r="G10" t="str">
-        <v>http://union.suido-kagawa.lg.jp/soshiki/53/</v>
-      </c>
-      <c r="I10" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="J10">
-        <v>0.375</v>
-      </c>
-      <c r="K10">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="L10" t="str">
-        <v>団体での利用不可。事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L10"/>
+    <ignoredError sqref="A1:L8 A10:L10 A9:D9 F9:L9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/water_supply_facility/data.xlsx
+++ b/data/water_supply_facility/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoppy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A283F8D-567E-EB40-9030-E2997DCB4B7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8671D28E-9352-D248-B53A-AE8F5EA20C33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33840" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,28 +250,15 @@
     <t>団体での利用不可。事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</t>
   </si>
   <si>
-    <r>
-      <t>高松市国分寺町新名1432</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-2</t>
-    </r>
-    <phoneticPr fontId="1"/>
+    <t>高松市国分寺町新名1432-2</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,21 +267,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -323,7 +304,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -666,7 +647,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -1066,7 +1047,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>

--- a/data/water_supply_facility/data.xlsx
+++ b/data/water_supply_facility/data.xlsx
@@ -1,46 +1,181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\s11606\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+  <si>
+    <t>#property</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>telephoneNumber</t>
+  </si>
+  <si>
+    <t>referenceObject</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>availableDate</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>availableDateNote</t>
+  </si>
+  <si>
+    <t>旧御殿水源地（高松市水道資料館）</t>
+  </si>
+  <si>
+    <t>高松市鶴市町1360</t>
+  </si>
+  <si>
+    <t>087-839-2711</t>
+  </si>
+  <si>
+    <t>http://union.suido-kagawa.lg.jp/soshiki/25/1283.html</t>
+  </si>
+  <si>
+    <t>国登録有形文化財</t>
+  </si>
+  <si>
+    <t>日月火水木金土</t>
+  </si>
+  <si>
+    <t>団体での見学、及び見学以外の利用の場合は事前申込必要。年末年始（12/29～1/3）は終日利用不可</t>
+  </si>
+  <si>
+    <t>御殿浄水場</t>
+  </si>
+  <si>
+    <t>087-861-2920</t>
+  </si>
+  <si>
+    <t>http://union.suido-kagawa.lg.jp/soshiki/29/1413.html</t>
+  </si>
+  <si>
+    <t>月火水木金</t>
+  </si>
+  <si>
+    <t>事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</t>
+  </si>
+  <si>
+    <t>浅野浄水場</t>
+  </si>
+  <si>
+    <t>高松市香川町浅野1161</t>
+  </si>
+  <si>
+    <t>087-879-4330</t>
+  </si>
+  <si>
+    <t>http://union.suido-kagawa.lg.jp/soshiki/29/1411.html</t>
+  </si>
+  <si>
+    <t>川添浄水場</t>
+  </si>
+  <si>
+    <t>高松市東山崎町1331</t>
+  </si>
+  <si>
+    <t>087-847-6141</t>
+  </si>
+  <si>
+    <t>http://union.suido-kagawa.lg.jp/soshiki/29/1412.html</t>
+  </si>
+  <si>
+    <t>後川浄水場</t>
+  </si>
+  <si>
+    <t>高松市塩江町安原上565-1</t>
+  </si>
+  <si>
+    <t>利用不可</t>
+  </si>
+  <si>
+    <t>一ツ内浄水場</t>
+  </si>
+  <si>
+    <t>高松市塩江町上西甲672-1</t>
+  </si>
+  <si>
+    <t>国分寺第１浄水場</t>
+  </si>
+  <si>
+    <t>高松市国分寺町新居1710-1</t>
+  </si>
+  <si>
+    <t>休止中</t>
+  </si>
+  <si>
+    <t>国分寺第２浄水場</t>
+  </si>
+  <si>
+    <t>高松市国分寺町新名1432-2</t>
+  </si>
+  <si>
+    <t>水質管理課</t>
+  </si>
+  <si>
+    <t>087-847-4869</t>
+  </si>
+  <si>
+    <t>http://union.suido-kagawa.lg.jp/soshiki/53/</t>
+  </si>
+  <si>
+    <t>団体での利用不可。事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -64,14 +199,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,317 +540,326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>#property</v>
-      </c>
-      <c r="B1" t="str">
-        <v>latitude</v>
-      </c>
-      <c r="C1" t="str">
-        <v>longitude</v>
-      </c>
-      <c r="D1" t="str">
-        <v>name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>address</v>
-      </c>
-      <c r="F1" t="str">
-        <v>telephoneNumber</v>
-      </c>
-      <c r="G1" t="str">
-        <v>referenceObject</v>
-      </c>
-      <c r="H1" t="str">
-        <v>note</v>
-      </c>
-      <c r="I1" t="str">
-        <v>availableDate</v>
-      </c>
-      <c r="J1" t="str">
-        <v>startTime</v>
-      </c>
-      <c r="K1" t="str">
-        <v>endTime</v>
-      </c>
-      <c r="L1" t="str">
-        <v>availableDateNote</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>34.33416056</v>
+        <v>34.334160560000001</v>
       </c>
       <c r="C2">
-        <v>134.01512139</v>
-      </c>
-      <c r="D2" t="str">
-        <v>旧御殿水源地（高松市水道資料館）</v>
-      </c>
-      <c r="E2" t="str">
-        <v>高松市鶴市町1360</v>
-      </c>
-      <c r="F2" t="str">
-        <v>087-839-2711</v>
-      </c>
-      <c r="G2" t="str">
-        <v>http://union.suido-kagawa.lg.jp/soshiki/25/1283.html</v>
-      </c>
-      <c r="H2" t="str">
-        <v>国登録有形文化財</v>
-      </c>
-      <c r="I2" t="str">
-        <v>日月火水木金土</v>
-      </c>
-      <c r="J2">
-        <v>0.41666666666666674</v>
-      </c>
-      <c r="K2">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="L2" t="str">
-        <v>団体での見学、及び見学以外の利用の場合は事前申込必要。年末年始（12/29～1/3）は終日利用不可</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>134.01512138999999</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>34.33337361</v>
+        <v>34.333373610000002</v>
       </c>
       <c r="C3">
-        <v>134.01533389</v>
-      </c>
-      <c r="D3" t="str">
-        <v>御殿浄水場</v>
-      </c>
-      <c r="E3" t="str">
-        <v>高松市鶴市町1360</v>
-      </c>
-      <c r="F3" t="str">
-        <v>087-861-2920</v>
-      </c>
-      <c r="G3" t="str">
-        <v>http://union.suido-kagawa.lg.jp/soshiki/29/1413.html</v>
-      </c>
-      <c r="I3" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="J3">
+        <v>134.01533388999999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1">
         <v>0.375</v>
       </c>
-      <c r="K3">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="L3" t="str">
-        <v>事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="K3" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>34.25399139</v>
+        <v>34.253991390000003</v>
       </c>
       <c r="C4">
         <v>134.029675</v>
       </c>
-      <c r="D4" t="str">
-        <v>浅野浄水場</v>
-      </c>
-      <c r="E4" t="str">
-        <v>高松市香川町浅野1161</v>
-      </c>
-      <c r="F4" t="str">
-        <v>087-879-4330</v>
-      </c>
-      <c r="G4" t="str">
-        <v>http://union.suido-kagawa.lg.jp/soshiki/29/1411.html</v>
-      </c>
-      <c r="I4" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="J4">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1">
         <v>0.375</v>
       </c>
-      <c r="K4">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="L4" t="str">
-        <v>事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="K4" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>34.30793111</v>
+        <v>34.307931109999998</v>
       </c>
       <c r="C5">
         <v>134.10039139</v>
       </c>
-      <c r="D5" t="str">
-        <v>川添浄水場</v>
-      </c>
-      <c r="E5" t="str">
-        <v>高松市東山崎町1331</v>
-      </c>
-      <c r="F5" t="str">
-        <v>087-847-6141</v>
-      </c>
-      <c r="G5" t="str">
-        <v>http://union.suido-kagawa.lg.jp/soshiki/29/1412.html</v>
-      </c>
-      <c r="I5" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="J5">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1">
         <v>0.375</v>
       </c>
-      <c r="K5">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="L5" t="str">
-        <v>事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="K5" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>34.17610333</v>
+        <v>34.176103329999997</v>
       </c>
       <c r="C6">
-        <v>134.07563889</v>
-      </c>
-      <c r="D6" t="str">
-        <v>後川浄水場</v>
-      </c>
-      <c r="E6" t="str">
-        <v>高松市塩江町安原上565-1</v>
-      </c>
-      <c r="L6" t="str">
-        <v>利用不可</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>134.07563888999999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>34.1375775</v>
+        <v>34.137577499999999</v>
       </c>
       <c r="C7">
-        <v>134.07610361</v>
-      </c>
-      <c r="D7" t="str">
-        <v>一ツ内浄水場</v>
-      </c>
-      <c r="E7" t="str">
-        <v>高松市塩江町上西甲672-1</v>
-      </c>
-      <c r="L7" t="str">
-        <v>利用不可</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>134.07610360999999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>34.30207</v>
+        <v>34.302070000000001</v>
       </c>
       <c r="C8">
-        <v>133.96305</v>
-      </c>
-      <c r="D8" t="str">
-        <v>国分寺第１浄水場</v>
-      </c>
-      <c r="E8" t="str">
-        <v>高松市国分寺町新居1710-1</v>
-      </c>
-      <c r="H8" t="str">
-        <v>休止中</v>
-      </c>
-      <c r="L8" t="str">
-        <v>利用不可</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>133.96305000000001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>34.283235</v>
+        <v>34.283234999999998</v>
       </c>
       <c r="C9">
         <v>133.960837</v>
       </c>
-      <c r="D9" t="str">
-        <v>国分寺第２浄水場</v>
-      </c>
-      <c r="E9" t="str">
-        <v>高松市国分寺町新名1432-2</v>
-      </c>
-      <c r="H9" t="str">
-        <v>休止中</v>
-      </c>
-      <c r="L9" t="str">
-        <v>利用不可</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>34.30739917</v>
+        <v>34.307399169999997</v>
       </c>
       <c r="C10">
         <v>134.10019111</v>
       </c>
-      <c r="D10" t="str">
-        <v>水質管理課</v>
-      </c>
-      <c r="E10" t="str">
-        <v>高松市東山崎町1331</v>
-      </c>
-      <c r="F10" t="str">
-        <v>087-847-4869</v>
-      </c>
-      <c r="G10" t="str">
-        <v>http://union.suido-kagawa.lg.jp/soshiki/53/</v>
-      </c>
-      <c r="I10" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="J10">
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="1">
         <v>0.375</v>
       </c>
-      <c r="K10">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="L10" t="str">
-        <v>団体での利用不可。事前申込必要。祝日、休日及び年末年始（12/29～1/3）は終日利用不可</v>
+      <c r="K10" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L10"/>
+    <ignoredError sqref="A1:L1 A6:L9 A2:I2 L2 A3:I3 L3 A4:I4 L4 A5:I5 L5 A10:I10 L10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/water_supply_facility/data.xlsx
+++ b/data/water_supply_facility/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\s11606\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoppy/geolonia/opendata/data/water_supply_facility/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1B2E9C-4D06-9C4B-996D-31AA3ECEA658}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24360" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,8 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +176,14 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -199,9 +208,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -540,19 +550,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -628,7 +638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -663,7 +673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -691,14 +701,14 @@
       <c r="J4" s="1">
         <v>0.375</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>0.70833333333333337</v>
       </c>
       <c r="L4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -726,14 +736,14 @@
       <c r="J5" s="1">
         <v>0.375</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>0.70833333333333337</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -753,7 +763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -773,7 +783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -796,7 +806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -819,7 +829,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -847,7 +857,7 @@
       <c r="J10" s="1">
         <v>0.375</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>0.70833333333333337</v>
       </c>
       <c r="L10" t="s">
@@ -859,7 +869,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L1 A6:L9 A2:I2 L2 A3:I3 L3 A4:I4 L4 A5:I5 L5 A10:I10 L10" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:L1 A6:I9 A2:I2 L2 A3:I3 L3 A4:I4 L4 A5:I5 L5 A10:I10 L10 L6:L9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/water_supply_facility/data.xlsx
+++ b/data/water_supply_facility/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\s11606\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoppy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF53A1C-DF26-5C43-8045-60C6E845D2FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24360" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,8 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +176,14 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -199,9 +208,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -540,19 +550,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -628,7 +638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -663,7 +673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -691,14 +701,14 @@
       <c r="J4" s="1">
         <v>0.375</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>0.70833333333333337</v>
       </c>
       <c r="L4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -726,14 +736,14 @@
       <c r="J5" s="1">
         <v>0.375</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>0.70833333333333337</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -753,7 +763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -773,7 +783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -796,7 +806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -819,7 +829,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -847,7 +857,7 @@
       <c r="J10" s="1">
         <v>0.375</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>0.70833333333333337</v>
       </c>
       <c r="L10" t="s">
@@ -859,7 +869,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L1 A6:L9 A2:I2 L2 A3:I3 L3 A4:I4 L4 A5:I5 L5 A10:I10 L10" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:L1 A6:I9 A2:I2 L2 A3:I3 L3 A4:I4 L4 A5:I5 L5 A10:I10 L10 L6:L9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>